--- a/excel/teste_faturamento.xlsx
+++ b/excel/teste_faturamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mescobar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFF8A5C-419C-4CBF-AF5F-CF0607FB65FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F22E57-E4EC-436D-88B6-BF5B2AC5450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7440688-394F-4B73-A8BB-FC087BB8E5CF}"/>
   </bookViews>
@@ -86,54 +86,54 @@
     <t>LOJA  PONTA NEGRA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>totempedro941@gmail.com</t>
+  </si>
+  <si>
+    <t>012449</t>
+  </si>
+  <si>
+    <t>1207 SP RESTAURANTES LTDA</t>
+  </si>
+  <si>
+    <t>26.277.931/0005-59</t>
+  </si>
+  <si>
+    <t>Loja BKF Studio 5 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>phnovaisnew@outlook.com</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>942 ANKUFAHIN COMERCIO DE ALIMENTOS - EIRELI</t>
+  </si>
+  <si>
+    <t>30.234.487/0001-38</t>
+  </si>
+  <si>
+    <t>BK ALTAMIRA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
+    <t>predohn@gmail.com</t>
+  </si>
+  <si>
+    <t>012451</t>
+  </si>
+  <si>
+    <t>2381 G2 SERVICOS DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>31.251.573/0003-83</t>
+  </si>
+  <si>
+    <t>LOJA BK PARNAÍBA, BKN 26203  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS  REF SETEMBRO</t>
+  </si>
+  <si>
     <t>phnovais7@gmail.com</t>
   </si>
   <si>
-    <t>012449</t>
-  </si>
-  <si>
-    <t>1207 SP RESTAURANTES LTDA</t>
-  </si>
-  <si>
-    <t>26.277.931/0005-59</t>
-  </si>
-  <si>
-    <t>Loja BKF Studio 5 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>teste@opa.com</t>
-  </si>
-  <si>
-    <t>012450</t>
-  </si>
-  <si>
-    <t>942 ANKUFAHIN COMERCIO DE ALIMENTOS - EIRELI</t>
-  </si>
-  <si>
-    <t>30.234.487/0001-38</t>
-  </si>
-  <si>
-    <t>BK ALTAMIRA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>teste@teste.com</t>
-  </si>
-  <si>
-    <t>012451</t>
-  </si>
-  <si>
-    <t>2381 G2 SERVICOS DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>31.251.573/0003-83</t>
-  </si>
-  <si>
-    <t>LOJA BK PARNAÍBA, BKN 26203  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS  REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>totempedro941@gmail.com</t>
-  </si>
-  <si>
     <t>012452</t>
   </si>
   <si>
@@ -146,7 +146,7 @@
     <t>LOJA PATIO COTIA MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>tantofaz@tantofaz.com</t>
+    <t>escobar.maria@uni9.edu.br</t>
   </si>
   <si>
     <t>012453</t>
@@ -161,7 +161,7 @@
     <t>LOJA UBATUBA  -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>phnovaisnew@outlook.com</t>
+    <t>maria.escobar@e-deploy.com.br</t>
   </si>
   <si>
     <t>012454</t>
@@ -176,7 +176,7 @@
     <t>LOJA OUTLET GUARULHOS - MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO** Reajuste aniversário do contrato - Índice IPCA 4,608220 % (acumulado 12 meses,  período de 09/22 até 08/23).</t>
   </si>
   <si>
-    <t>testeee@ok.com</t>
+    <t>phlastforall@gmail.com</t>
   </si>
   <si>
     <t>012455</t>
@@ -4665,9 +4665,9 @@
     <hyperlink ref="K3" r:id="rId2" xr:uid="{35766B5E-59EF-4457-AD37-B94D78610887}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{803DA441-B5BF-4A30-9E9A-C068E8CC4BB1}"/>
     <hyperlink ref="K5" r:id="rId4" xr:uid="{3631FA2A-EFD1-4A00-A3AF-5011FEC93FE8}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{C9B29E98-2494-4455-AC58-438D7549D2EF}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{741145C0-2C3F-4028-9A2F-3D0B1C482497}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{90DD2026-8BCF-44B4-A21A-3BF06956BC60}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{741145C0-2C3F-4028-9A2F-3D0B1C482497}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{90DD2026-8BCF-44B4-A21A-3BF06956BC60}"/>
+    <hyperlink ref="K6" r:id="rId7" xr:uid="{F667B957-6845-4FAC-A527-A8016C4772C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/excel/teste_faturamento.xlsx
+++ b/excel/teste_faturamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mescobar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F22E57-E4EC-436D-88B6-BF5B2AC5450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB506429-45B7-4863-A559-B8C550DCB6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7440688-394F-4B73-A8BB-FC087BB8E5CF}"/>
   </bookViews>
@@ -101,22 +101,22 @@
     <t>Loja BKF Studio 5 MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
+    <t>predohn@gmail.com</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>942 ANKUFAHIN COMERCIO DE ALIMENTOS - EIRELI</t>
+  </si>
+  <si>
+    <t>30.234.487/0001-38</t>
+  </si>
+  <si>
+    <t>BK ALTAMIRA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
+  </si>
+  <si>
     <t>phnovaisnew@outlook.com</t>
-  </si>
-  <si>
-    <t>012450</t>
-  </si>
-  <si>
-    <t>942 ANKUFAHIN COMERCIO DE ALIMENTOS - EIRELI</t>
-  </si>
-  <si>
-    <t>30.234.487/0001-38</t>
-  </si>
-  <si>
-    <t>BK ALTAMIRA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
-  </si>
-  <si>
-    <t>predohn@gmail.com</t>
   </si>
   <si>
     <t>012451</t>
@@ -1980,7 +1980,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4662,12 +4662,12 @@
   <autoFilter ref="A1:K1" xr:uid="{A3980979-A4A3-4BEF-82D1-E54DA2605DC7}"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{A2585154-5C82-4230-8868-E30E617546F7}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{35766B5E-59EF-4457-AD37-B94D78610887}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{803DA441-B5BF-4A30-9E9A-C068E8CC4BB1}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{3631FA2A-EFD1-4A00-A3AF-5011FEC93FE8}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{741145C0-2C3F-4028-9A2F-3D0B1C482497}"/>
-    <hyperlink ref="K8" r:id="rId6" xr:uid="{90DD2026-8BCF-44B4-A21A-3BF06956BC60}"/>
-    <hyperlink ref="K6" r:id="rId7" xr:uid="{F667B957-6845-4FAC-A527-A8016C4772C2}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{3631FA2A-EFD1-4A00-A3AF-5011FEC93FE8}"/>
+    <hyperlink ref="K7" r:id="rId3" xr:uid="{741145C0-2C3F-4028-9A2F-3D0B1C482497}"/>
+    <hyperlink ref="K8" r:id="rId4" xr:uid="{90DD2026-8BCF-44B4-A21A-3BF06956BC60}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{F667B957-6845-4FAC-A527-A8016C4772C2}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{F6DBB2CC-913F-4D8F-B3F6-AE7014BCF2E3}"/>
+    <hyperlink ref="K3" r:id="rId7" xr:uid="{4AAF3CF8-9906-4998-8E72-B74B4315D10F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/excel/teste_faturamento.xlsx
+++ b/excel/teste_faturamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mescobar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB506429-45B7-4863-A559-B8C550DCB6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C69C0A5-FE96-4A68-91AA-0DB516CD8B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7440688-394F-4B73-A8BB-FC087BB8E5CF}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <t>BK ALTAMIRA -  MENSALIDADES SUPORTES N1 POS + DIGITAL, POS + N3, SERVIÇO DE ATUALIZAÇÃO DE PREÇOS REF SETEMBRO</t>
   </si>
   <si>
-    <t>phnovaisnew@outlook.com</t>
+    <t>pedro.novais@e-deploy.com.br</t>
   </si>
   <si>
     <t>012451</t>
@@ -1980,7 +1980,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
